--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Omg-Lingo1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Omg-Lingo1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.840954666666667</v>
+        <v>3.070536666666667</v>
       </c>
       <c r="H2">
-        <v>5.522864</v>
+        <v>9.21161</v>
       </c>
       <c r="I2">
-        <v>0.1665577163991766</v>
+        <v>0.2245190988242715</v>
       </c>
       <c r="J2">
-        <v>0.1665577163991765</v>
+        <v>0.2245190988242715</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,22 +561,22 @@
         <v>0.814167</v>
       </c>
       <c r="O2">
-        <v>0.8442974428427283</v>
+        <v>0.6892208999344782</v>
       </c>
       <c r="P2">
-        <v>0.8442974428427285</v>
+        <v>0.6892208999344781</v>
       </c>
       <c r="Q2">
-        <v>0.499614846032</v>
+        <v>0.83330987543</v>
       </c>
       <c r="R2">
-        <v>4.496533614288</v>
+        <v>7.49978887887</v>
       </c>
       <c r="S2">
-        <v>0.1406242540415491</v>
+        <v>0.1547432553441425</v>
       </c>
       <c r="T2">
-        <v>0.1406242540415491</v>
+        <v>0.1547432553441424</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.840954666666667</v>
+        <v>3.070536666666667</v>
       </c>
       <c r="H3">
-        <v>5.522864</v>
+        <v>9.21161</v>
       </c>
       <c r="I3">
-        <v>0.1665577163991766</v>
+        <v>0.2245190988242715</v>
       </c>
       <c r="J3">
-        <v>0.1665577163991765</v>
+        <v>0.2245190988242715</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,28 +617,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.05004866666666666</v>
+        <v>0.122373</v>
       </c>
       <c r="N3">
-        <v>0.150146</v>
+        <v>0.367119</v>
       </c>
       <c r="O3">
-        <v>0.1557025571572715</v>
+        <v>0.3107791000655218</v>
       </c>
       <c r="P3">
-        <v>0.1557025571572715</v>
+        <v>0.3107791000655218</v>
       </c>
       <c r="Q3">
-        <v>0.09213732646044444</v>
+        <v>0.37575078351</v>
       </c>
       <c r="R3">
-        <v>0.8292359381440001</v>
+        <v>3.38175705159</v>
       </c>
       <c r="S3">
-        <v>0.02593346235762741</v>
+        <v>0.06977584348012905</v>
       </c>
       <c r="T3">
-        <v>0.02593346235762741</v>
+        <v>0.06977584348012904</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>11.699405</v>
       </c>
       <c r="I4">
-        <v>0.3528289271705964</v>
+        <v>0.2851553493233187</v>
       </c>
       <c r="J4">
-        <v>0.3528289271705963</v>
+        <v>0.2851553493233187</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,10 +685,10 @@
         <v>0.814167</v>
       </c>
       <c r="O4">
-        <v>0.8442974428427283</v>
+        <v>0.6892208999344782</v>
       </c>
       <c r="P4">
-        <v>0.8442974428427285</v>
+        <v>0.6892208999344781</v>
       </c>
       <c r="Q4">
         <v>1.058363274515</v>
@@ -697,10 +697,10 @@
         <v>9.525269470635001</v>
       </c>
       <c r="S4">
-        <v>0.2978925609710777</v>
+        <v>0.1965350264817482</v>
       </c>
       <c r="T4">
-        <v>0.2978925609710777</v>
+        <v>0.1965350264817482</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>11.699405</v>
       </c>
       <c r="I5">
-        <v>0.3528289271705964</v>
+        <v>0.2851553493233187</v>
       </c>
       <c r="J5">
-        <v>0.3528289271705963</v>
+        <v>0.2851553493233187</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.05004866666666666</v>
+        <v>0.122373</v>
       </c>
       <c r="N5">
-        <v>0.150146</v>
+        <v>0.367119</v>
       </c>
       <c r="O5">
-        <v>0.1557025571572715</v>
+        <v>0.3107791000655218</v>
       </c>
       <c r="P5">
-        <v>0.1557025571572715</v>
+        <v>0.3107791000655218</v>
       </c>
       <c r="Q5">
-        <v>0.1951798736811111</v>
+        <v>0.477230429355</v>
       </c>
       <c r="R5">
-        <v>1.75661886313</v>
+        <v>4.295073864194999</v>
       </c>
       <c r="S5">
-        <v>0.05493636619951858</v>
+        <v>0.08862032284157048</v>
       </c>
       <c r="T5">
-        <v>0.05493636619951858</v>
+        <v>0.08862032284157048</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.359506666666666</v>
+        <v>3.959514</v>
       </c>
       <c r="H6">
-        <v>7.078519999999999</v>
+        <v>11.878542</v>
       </c>
       <c r="I6">
-        <v>0.2134729601681119</v>
+        <v>0.2895215434854775</v>
       </c>
       <c r="J6">
-        <v>0.2134729601681119</v>
+        <v>0.2895215434854775</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,22 +809,22 @@
         <v>0.814167</v>
       </c>
       <c r="O6">
-        <v>0.8442974428427283</v>
+        <v>0.6892208999344782</v>
       </c>
       <c r="P6">
-        <v>0.8442974428427285</v>
+        <v>0.6892208999344781</v>
       </c>
       <c r="Q6">
-        <v>0.64034415476</v>
+        <v>1.074568544946</v>
       </c>
       <c r="R6">
-        <v>5.763097392839999</v>
+        <v>9.671116904513999</v>
       </c>
       <c r="S6">
-        <v>0.1802346743860045</v>
+        <v>0.19954429875148</v>
       </c>
       <c r="T6">
-        <v>0.1802346743860045</v>
+        <v>0.1995442987514799</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.359506666666666</v>
+        <v>3.959514</v>
       </c>
       <c r="H7">
-        <v>7.078519999999999</v>
+        <v>11.878542</v>
       </c>
       <c r="I7">
-        <v>0.2134729601681119</v>
+        <v>0.2895215434854775</v>
       </c>
       <c r="J7">
-        <v>0.2134729601681119</v>
+        <v>0.2895215434854775</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -865,28 +865,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.05004866666666666</v>
+        <v>0.122373</v>
       </c>
       <c r="N7">
-        <v>0.150146</v>
+        <v>0.367119</v>
       </c>
       <c r="O7">
-        <v>0.1557025571572715</v>
+        <v>0.3107791000655218</v>
       </c>
       <c r="P7">
-        <v>0.1557025571572715</v>
+        <v>0.3107791000655218</v>
       </c>
       <c r="Q7">
-        <v>0.1180901626577778</v>
+        <v>0.484537606722</v>
       </c>
       <c r="R7">
-        <v>1.06281146392</v>
+        <v>4.360838460497999</v>
       </c>
       <c r="S7">
-        <v>0.0332382857821074</v>
+        <v>0.08997724473399753</v>
       </c>
       <c r="T7">
-        <v>0.03323828578210739</v>
+        <v>0.08997724473399753</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.952690333333333</v>
+        <v>2.746207666666667</v>
       </c>
       <c r="H8">
-        <v>8.858071000000001</v>
+        <v>8.238623</v>
       </c>
       <c r="I8">
-        <v>0.2671403962621152</v>
+        <v>0.2008040083669322</v>
       </c>
       <c r="J8">
-        <v>0.2671403962621152</v>
+        <v>0.2008040083669322</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,22 +933,22 @@
         <v>0.814167</v>
       </c>
       <c r="O8">
-        <v>0.8442974428427283</v>
+        <v>0.6892208999344782</v>
       </c>
       <c r="P8">
-        <v>0.8442974428427285</v>
+        <v>0.6892208999344781</v>
       </c>
       <c r="Q8">
-        <v>0.801327676873</v>
+        <v>0.745290552449</v>
       </c>
       <c r="R8">
-        <v>7.211949091857</v>
+        <v>6.707614972041</v>
       </c>
       <c r="S8">
-        <v>0.225545953444097</v>
+        <v>0.1383983193571075</v>
       </c>
       <c r="T8">
-        <v>0.225545953444097</v>
+        <v>0.1383983193571075</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.952690333333333</v>
+        <v>2.746207666666667</v>
       </c>
       <c r="H9">
-        <v>8.858071000000001</v>
+        <v>8.238623</v>
       </c>
       <c r="I9">
-        <v>0.2671403962621152</v>
+        <v>0.2008040083669322</v>
       </c>
       <c r="J9">
-        <v>0.2671403962621152</v>
+        <v>0.2008040083669322</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.05004866666666666</v>
+        <v>0.122373</v>
       </c>
       <c r="N9">
-        <v>0.150146</v>
+        <v>0.367119</v>
       </c>
       <c r="O9">
-        <v>0.1557025571572715</v>
+        <v>0.3107791000655218</v>
       </c>
       <c r="P9">
-        <v>0.1557025571572715</v>
+        <v>0.3107791000655218</v>
       </c>
       <c r="Q9">
-        <v>0.1477782142628889</v>
+        <v>0.336061670793</v>
       </c>
       <c r="R9">
-        <v>1.330003928366</v>
+        <v>3.024555037137</v>
       </c>
       <c r="S9">
-        <v>0.04159444281801816</v>
+        <v>0.06240568900982469</v>
       </c>
       <c r="T9">
-        <v>0.04159444281801816</v>
+        <v>0.06240568900982469</v>
       </c>
     </row>
   </sheetData>
